--- a/users-service/etudiants.xlsx
+++ b/users-service/etudiants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67559088c139f576/Bureau/micro-service/users-service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{7F2B0F8E-6530-4897-903D-E5E75BA16C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A78FAFB9-0085-4FA2-A587-EF22692CA59B}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{7F2B0F8E-6530-4897-903D-E5E75BA16C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{194E4F32-1223-4CAA-AD22-B8621789DADC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{898332AA-5C71-466B-9485-821EC296A924}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Matricule</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>mrkrahma@gmail.com</t>
+  </si>
+  <si>
+    <t>l</t>
   </si>
 </sst>
 </file>
@@ -495,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E48E84-30F7-4A9F-8C01-E5D415E9F777}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,6 +596,11 @@
         <v>17</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{35EE09FC-FCD3-4B4F-9C3C-A7ABA5919F36}"/>
